--- a/data/descargas/cargos_recurrentes.xlsx
+++ b/data/descargas/cargos_recurrentes.xlsx
@@ -311,7 +311,7 @@
     <row r="3">
       <c t="inlineStr" r="A3" s="51">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:12 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:30 a. m. </t>
         </is>
       </c>
     </row>

--- a/data/descargas/cargos_recurrentes.xlsx
+++ b/data/descargas/cargos_recurrentes.xlsx
@@ -311,7 +311,7 @@
     <row r="3">
       <c t="inlineStr" r="A3" s="51">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:30 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:37 a. m. </t>
         </is>
       </c>
     </row>

--- a/data/descargas/cargos_recurrentes.xlsx
+++ b/data/descargas/cargos_recurrentes.xlsx
@@ -311,7 +311,7 @@
     <row r="3">
       <c t="inlineStr" r="A3" s="51">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:37 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 06:47 a. m. </t>
         </is>
       </c>
     </row>

--- a/data/descargas/cargos_recurrentes.xlsx
+++ b/data/descargas/cargos_recurrentes.xlsx
@@ -311,7 +311,7 @@
     <row r="3">
       <c t="inlineStr" r="A3" s="51">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 06:47 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 07:15 a. m. </t>
         </is>
       </c>
     </row>

--- a/data/descargas/cargos_recurrentes.xlsx
+++ b/data/descargas/cargos_recurrentes.xlsx
@@ -311,7 +311,7 @@
     <row r="3">
       <c t="inlineStr" r="A3" s="51">
         <is>
-          <t xml:space="preserve">Reporte generado: 01-12-2025 07:15 a. m. </t>
+          <t xml:space="preserve">Reporte generado: 01-12-2025 07:37 a. m. </t>
         </is>
       </c>
     </row>

--- a/data/descargas/cargos_recurrentes.xlsx
+++ b/data/descargas/cargos_recurrentes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,27 +608,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83128</v>
+        <v>83148</v>
       </c>
       <c r="C3" t="n">
-        <v>38850</v>
+        <v>114805</v>
       </c>
       <c r="D3" t="n">
-        <v>36722</v>
+        <v>12530</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>JAVIER  CHAVEZ  MADRIGAL</t>
+          <t>ALEJANDRA MARTINEZ MARTINEZ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CARROUSEL TIJUANA</t>
+          <t>MISION ENSENADA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01-12-2025 7:08:49</t>
+          <t>01-12-2025 11:33:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -646,18 +646,18 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>699</v>
+        <v>499</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>30-05-2026 7:08:49</t>
+          <t>26-11-2026 11:33:11</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -665,9 +665,7 @@
           <t>Domiciliado</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>36926</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -675,29 +673,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81539</v>
+        <v>83162</v>
       </c>
       <c r="C4" t="n">
-        <v>307208</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>04707</t>
-        </is>
+        <v>326177</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23116</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUIS ANGEL VILDOSELA ROMO</t>
+          <t>ALMA ERENDIDA ELIZONDO QUIRARTE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>VILLA VERDE MEXICALI</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05-11-2025 20:37:35</t>
+          <t>01-12-2025 13:15:36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -715,18 +711,18 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>31-10-2026 20:37:35</t>
+          <t>30-05-2026 13:15:36</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -734,9 +730,7 @@
           <t>Domiciliado</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>73925</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -744,27 +738,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81256</v>
+        <v>83173</v>
       </c>
       <c r="C5" t="n">
-        <v>237652</v>
+        <v>326207</v>
       </c>
       <c r="D5" t="n">
-        <v>35157</v>
+        <v>23146</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ALI ANDRES JUAREZ FERRER</t>
+          <t>ISABEL  DIAZ MUNGUIA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PAPALOTE TIJUANA</t>
+          <t>INSURGENTES</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03-11-2025 16:19:27</t>
+          <t>01-12-2025 15:23:55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -782,26 +776,26 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>599</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Indefinido</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>649</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>26-11-2026 15:23:55</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Recurrente</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>70891</v>
-      </c>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -809,17 +803,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83124</v>
+        <v>83180</v>
       </c>
       <c r="C6" t="n">
-        <v>326106</v>
+        <v>326229</v>
       </c>
       <c r="D6" t="n">
-        <v>23045</v>
+        <v>23168</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ISMAEL GUADALUPE ANGELES VALIENTE</t>
+          <t>JUAN  CANO HERNANDEZ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -829,7 +823,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01-12-2025 6:35:02</t>
+          <t>01-12-2025 16:09:22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -858,7 +852,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>26-11-2026 6:35:02</t>
+          <t>26-11-2026 16:09:22</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -874,27 +868,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83126</v>
+        <v>83187</v>
       </c>
       <c r="C7" t="n">
-        <v>89241</v>
+        <v>326251</v>
       </c>
       <c r="D7" t="n">
-        <v>87019</v>
+        <v>23190</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JORGE  DE LA ROSA LOPEZ</t>
+          <t>RENATA SEPTIMO CEPEDA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SENDERO MEXICALI</t>
+          <t>SANTA CATARINA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01-12-2025 7:00:37</t>
+          <t>01-12-2025 16:42:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -912,18 +906,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>699</v>
+        <v>499</v>
       </c>
       <c r="M7" t="n">
         <v>11</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>26-11-2026 7:00:37</t>
+          <t>26-11-2026 16:42:06</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -931,9 +925,7 @@
           <t>Domiciliado</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>75338</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -941,27 +933,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83123</v>
+        <v>83198</v>
       </c>
       <c r="C8" t="n">
-        <v>92492</v>
+        <v>271998</v>
       </c>
       <c r="D8" t="n">
-        <v>90254</v>
+        <v>69500</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GREGORIO ALEXEIBOR LANDAVERDE DURAN</t>
+          <t>CARLOS  MARES GASTELUM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SENDERO SALTILLO</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01-12-2025 6:29:32</t>
+          <t>01-12-2025 17:41:26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1004,29 +996,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81538</v>
+        <v>83205</v>
       </c>
       <c r="C9" t="n">
-        <v>307203</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>04702</t>
-        </is>
+        <v>259039</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56543</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ANGELICA ROMO TIRADO</t>
+          <t>IVONNE RODRIGUEZ  GONZALEZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>IXTAPALUCA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05-11-2025 20:34:05</t>
+          <t>01-12-2025 17:53:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1044,18 +1034,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>499</v>
+        <v>175</v>
       </c>
       <c r="M9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>31-10-2026 20:34:05</t>
+          <t>30-05-2026 17:53:51</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1063,9 +1053,7 @@
           <t>Domiciliado</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>73922</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1073,29 +1061,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>81540</v>
+        <v>83212</v>
       </c>
       <c r="C10" t="n">
-        <v>307207</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>04706</t>
-        </is>
+        <v>326289</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23228</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MONICA LIZBETH  VILDOSOLA ROMO</t>
+          <t>EDUARDO AVITIA GUTIERREZ</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>SENDERO MEXICALI</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05-11-2025 20:41:09</t>
+          <t>01-12-2025 18:08:26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1113,18 +1099,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="M10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>31-10-2026 20:41:09</t>
+          <t>01-03-2026 18:08:26</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1132,9 +1118,7 @@
           <t>Domiciliado</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>73924</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1142,27 +1126,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82776</v>
+        <v>83223</v>
       </c>
       <c r="C11" t="n">
-        <v>300931</v>
+        <v>287370</v>
       </c>
       <c r="D11" t="n">
-        <v>98429</v>
+        <v>84868</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SUJEY  YAMAGUCHI ALMANZA</t>
+          <t>ROSARIO GUADALUPE  PACHECO POSADA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SENDERO CULIACAN</t>
+          <t>LOMA BONITA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25-11-2025 6:51:06</t>
+          <t>01-12-2025 18:40:33</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1184,21 +1168,23 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>599</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Indefinido</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>699</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:40:33</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Recurrente</t>
+          <t>Domiciliado</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>70622</v>
+        <v>63218</v>
       </c>
       <c r="Q11" t="inlineStr"/>
     </row>
@@ -1207,29 +1193,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83125</v>
+        <v>83230</v>
       </c>
       <c r="C12" t="n">
-        <v>208320</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>05828</t>
-        </is>
+        <v>324265</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21204</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CARLOS ALEJANDRO  GARCIA RODRIGUEZ</t>
+          <t>ALEXIA DEYANIRA RAMIREZ PULIDO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SENDERO SALTILLO</t>
+          <t>SAN ISIDRO CULIACAN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01-12-2025 6:52:20</t>
+          <t>01-12-2025 19:04:53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1272,27 +1256,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83127</v>
+        <v>83237</v>
       </c>
       <c r="C13" t="n">
-        <v>32758</v>
+        <v>25475</v>
       </c>
       <c r="D13" t="n">
-        <v>30681</v>
+        <v>23416</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CESAR ADRIAN  MINTIJO LORA</t>
+          <t>JORGE BORBON CORRAL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CARROUSEL TIJUANA</t>
+          <t>PAPALOTE TIJUANA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01-12-2025 7:05:40</t>
+          <t>01-12-2025 19:25:22</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1314,17 +1298,19 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>599</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Indefinido</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>549</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>30-05-2026 19:25:22</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Recurrente</t>
+          <t>Domiciliado</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1335,29 +1321,29 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>79490</v>
+        <v>83248</v>
       </c>
       <c r="C14" t="n">
-        <v>312200</v>
+        <v>306362</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09699</t>
+          <t>03861</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CLARA VALERIA GUZMAN  QUEZADA</t>
+          <t>JULIAN EDUARDO  VILLARREAL  HIGUERA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>MISION ENSENADA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06-10-2025 17:38:22</t>
+          <t>01-12-2025 21:12:05</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1375,26 +1361,26 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>599</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Indefinido</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>499</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>26-11-2026 21:12:05</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Recurrente</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>76890</v>
-      </c>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1402,32 +1388,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>81879</v>
+        <v>83255</v>
       </c>
       <c r="C15" t="n">
-        <v>147573</v>
+        <v>255493</v>
       </c>
       <c r="D15" t="n">
-        <v>45149</v>
+        <v>52997</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA LUNA CASTILLO</t>
+          <t>CLARISA OSAKI ZAMBADA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PASEO LA PAZ</t>
+          <t>AZAHARES CULIACAN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-11-2025 6:33:31</t>
+          <t>02-12-2025 7:01:10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>30-12-2025 23:59:59</t>
+          <t>03-01-2026 23:59:59</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1444,14 +1430,14 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>499</v>
+        <v>399</v>
       </c>
       <c r="M15" t="n">
         <v>11</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>06-11-2026 6:33:31</t>
+          <t>27-11-2026 7:01:10</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1460,7 +1446,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>67864</v>
+        <v>40277</v>
       </c>
       <c r="Q15" t="inlineStr"/>
     </row>
@@ -1469,32 +1455,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82986</v>
+        <v>83105</v>
       </c>
       <c r="C16" t="n">
-        <v>173236</v>
+        <v>89516</v>
       </c>
       <c r="D16" t="n">
-        <v>70744</v>
+        <v>87294</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GISELA RODRIGUEZ BARBOZA</t>
+          <t>JUAN ABINADIT HOIL  BALANZAR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VILLAS DEL REY</t>
+          <t>SANTA FE</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>28-11-2025 12:50:09</t>
+          <t>30-11-2025 12:09:14</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>01-01-2026 23:59:59</t>
+          <t>06-01-2026 23:59:59</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1511,14 +1497,14 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>449</v>
+        <v>549</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>27-05-2026 12:50:09</t>
+          <t>29-05-2026 12:09:14</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1527,7 +1513,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>51883</v>
+        <v>81717</v>
       </c>
       <c r="Q16" t="inlineStr"/>
     </row>
@@ -1536,27 +1522,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83122</v>
+        <v>83123</v>
       </c>
       <c r="C17" t="n">
-        <v>326105</v>
+        <v>92492</v>
       </c>
       <c r="D17" t="n">
-        <v>23044</v>
+        <v>90254</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MONICA DANIELA  ORDUÑO PEREZ</t>
+          <t>GREGORIO ALEXEIBOR LANDAVERDE DURAN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SENDERO CULIACAN</t>
+          <t>SENDERO SALTILLO</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>01-12-2025 6:18:00</t>
+          <t>01-12-2025 6:29:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1599,27 +1585,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81870</v>
+        <v>83130</v>
       </c>
       <c r="C18" t="n">
-        <v>41424</v>
+        <v>132613</v>
       </c>
       <c r="D18" t="n">
-        <v>39294</v>
+        <v>30265</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ALVA BERENICE RAMOS  SANDEZ</t>
+          <t>ANAY  RIVERA  GONZALEZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>SENDERO MEXICALI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10-11-2025 21:26:26</t>
+          <t>01-12-2025 7:52:36</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1637,26 +1623,26 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>RENOVACIÓN</t>
+          <t>NUEVO</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>549</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Indefinido</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>30-05-2026 7:52:36</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Recurrente</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>67098</v>
-      </c>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1664,32 +1650,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83117</v>
+        <v>81482</v>
       </c>
       <c r="C19" t="n">
-        <v>326101</v>
+        <v>259563</v>
       </c>
       <c r="D19" t="n">
-        <v>23040</v>
+        <v>57067</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GUSTAVO ANGEL HIDALGO  HERNANDEZ</t>
+          <t>ALMA ROSA  CALIHUA SANCHEZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>PABELLON ROSARITO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>01-12-2025 5:21:05</t>
+          <t>05-11-2025 9:40:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01-01-2026 23:59:59</t>
+          <t>30-12-2025 23:59:59</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1702,24 +1688,28 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>NUEVO</t>
+          <t>RENOVACIÓN</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>599</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Indefinido</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>399</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>31-10-2026 9:40:15</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Recurrente</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr"/>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>62433</v>
+      </c>
       <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1727,29 +1717,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83118</v>
+        <v>83145</v>
       </c>
       <c r="C20" t="n">
-        <v>109544</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>07284</t>
-        </is>
+        <v>326153</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23092</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>JORGE DIEGO DIAZ VEGA</t>
+          <t>DANIEL ARTURO  NUNGARAY PONCE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SENDERO MEXICALI</t>
+          <t>SENDERO CULIACAN</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01-12-2025 5:54:29</t>
+          <t>01-12-2025 11:02:06</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1771,14 +1759,14 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="M20" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>26-11-2026 5:54:29</t>
+          <t>01-03-2026 11:02:06</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1790,27 +1778,7201 @@
       <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Reporte generado: 01-12-2025 03:26 p. m.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>83156</v>
+      </c>
+      <c r="C21" t="n">
+        <v>233870</v>
+      </c>
+      <c r="D21" t="n">
+        <v>31375</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RUBEN LAGUNA BONILLA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01-12-2025 12:04:56</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>699</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>30-05-2026 12:04:56</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>41697</v>
+      </c>
       <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>83179</v>
+      </c>
+      <c r="C22" t="n">
+        <v>326216</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23155</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ANA LAURA GOMEZ  CANO</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:02:10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>649</v>
+      </c>
+      <c r="M22" t="n">
+        <v>11</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>26-11-2026 16:02:10</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>83181</v>
+      </c>
+      <c r="C23" t="n">
+        <v>69422</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67249</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MARIA ESHTELA SILVA MORENO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SANTA CATARINA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:09:47</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>499</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>26-11-2026 16:09:47</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>83188</v>
+      </c>
+      <c r="C24" t="n">
+        <v>279913</v>
+      </c>
+      <c r="D24" t="n">
+        <v>77414</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PAUL ALEJANDRO CARDEÑA ROSALES</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:43:47</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>499</v>
+      </c>
+      <c r="M24" t="n">
+        <v>11</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>26-11-2026 16:43:47</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>83190</v>
+      </c>
+      <c r="C25" t="n">
+        <v>241364</v>
+      </c>
+      <c r="D25" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>JESUS RUBEN FERNANDEZ NUÑEZ</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TEC MEXICALI</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:58:52</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>499</v>
+      </c>
+      <c r="M25" t="n">
+        <v>11</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>26-11-2026 16:58:52</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>83213</v>
+      </c>
+      <c r="C26" t="n">
+        <v>252989</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50493</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GUADALUPE  ITZEL  OSORIO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LOMA BONITA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:10:21</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>499</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:10:21</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>83215</v>
+      </c>
+      <c r="C27" t="n">
+        <v>326291</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23230</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTONIO BURCIAGA JACOBO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SAN ISIDRO CULIACAN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:17:54</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>01-02-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>549</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>30-05-2026 18:17:54</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>83220</v>
+      </c>
+      <c r="C28" t="n">
+        <v>326302</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23241</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MAYRA TERESA GUZMAN MORENO</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TEC MEXICALI</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:35:40</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>499</v>
+      </c>
+      <c r="M28" t="n">
+        <v>11</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:35:40</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>83222</v>
+      </c>
+      <c r="C29" t="n">
+        <v>326303</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23242</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PERLA AIMEE OSUNA TAVARES</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PASEO LA PAZ</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:38:43</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>549</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>01-03-2026 18:38:43</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>83245</v>
+      </c>
+      <c r="C30" t="n">
+        <v>326333</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23272</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALMA YANETH QUINTERO  ZUBIATE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TEC MEXICALI</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>01-12-2025 20:41:45</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>499</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>26-11-2026 20:41:45</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>83247</v>
+      </c>
+      <c r="C31" t="n">
+        <v>306368</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>03867</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NANCY ESCOBAR PEREZ</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MISION ENSENADA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01-12-2025 21:09:19</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>499</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>26-11-2026 21:09:19</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>83254</v>
+      </c>
+      <c r="C32" t="n">
+        <v>89139</v>
+      </c>
+      <c r="D32" t="n">
+        <v>86918</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MOISES NEGRETE TORRES</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>02-12-2025 6:30:16</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>02-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>549</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>31-05-2026 6:30:16</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>82986</v>
+      </c>
+      <c r="C33" t="n">
+        <v>173236</v>
+      </c>
+      <c r="D33" t="n">
+        <v>70744</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GISELA RODRIGUEZ BARBOZA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>VILLAS DEL REY</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>28-11-2025 12:50:09</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>449</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>27-05-2026 12:50:09</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>51883</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>83122</v>
+      </c>
+      <c r="C34" t="n">
+        <v>326105</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23044</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MONICA DANIELA  ORDUÑO PEREZ</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SENDERO CULIACAN</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>01-12-2025 6:18:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>599</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>81870</v>
+      </c>
+      <c r="C35" t="n">
+        <v>41424</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39294</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ALVA BERENICE RAMOS  SANDEZ</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>INDEPENDENCIA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10-11-2025 21:26:26</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>549</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>67098</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>83140</v>
+      </c>
+      <c r="C36" t="n">
+        <v>326127</v>
+      </c>
+      <c r="D36" t="n">
+        <v>23066</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ISABEL ESPINOZA  VALENZUELA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MISION ENSENADA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>01-12-2025 9:21:40</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>499</v>
+      </c>
+      <c r="M36" t="n">
+        <v>11</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>26-11-2026 9:21:40</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>83163</v>
+      </c>
+      <c r="C37" t="n">
+        <v>255351</v>
+      </c>
+      <c r="D37" t="n">
+        <v>52855</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ANTONIO REYES VALENCIA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>01-12-2025 13:52:19</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>02-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>399</v>
+      </c>
+      <c r="M37" t="n">
+        <v>11</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>26-11-2026 13:52:19</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>48243</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>83172</v>
+      </c>
+      <c r="C38" t="n">
+        <v>243225</v>
+      </c>
+      <c r="D38" t="n">
+        <v>40730</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>JESUS  RIVERA GALEANA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>01-12-2025 15:18:02</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>699</v>
+      </c>
+      <c r="M38" t="n">
+        <v>11</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>26-11-2026 15:18:02</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>59334</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>83195</v>
+      </c>
+      <c r="C39" t="n">
+        <v>326264</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23203</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>KARLA DANIELA AIROLA ARROYO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PASEO LA PAZ</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:18:13</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>549</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>01-03-2026 17:18:13</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>83197</v>
+      </c>
+      <c r="C40" t="n">
+        <v>325695</v>
+      </c>
+      <c r="D40" t="n">
+        <v>22634</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ILSE NAYELI ROBLES HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:22:17</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>599</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>83204</v>
+      </c>
+      <c r="C41" t="n">
+        <v>325712</v>
+      </c>
+      <c r="D41" t="n">
+        <v>22651</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ZABDIEL MIRANDA AVILA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:53:31</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>649</v>
+      </c>
+      <c r="M41" t="n">
+        <v>11</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>26-11-2026 17:53:31</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>83206</v>
+      </c>
+      <c r="C42" t="n">
+        <v>326282</v>
+      </c>
+      <c r="D42" t="n">
+        <v>23221</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ISRAEL GABRIEL  TREJO  SANDOVAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>VILLAS DEL REY</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:56:49</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>549</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>01-03-2026 17:56:49</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>83229</v>
+      </c>
+      <c r="C43" t="n">
+        <v>326090</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23029</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ISELA  MARTINEZ JACA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LOMA BONITA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:55:05</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>499</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:55:05</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>83238</v>
+      </c>
+      <c r="C44" t="n">
+        <v>220624</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18131</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ISABEL MERCEDES ROBLES VALENCIA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>VILLAS DEL REY</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>01-12-2025 19:29:43</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>549</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>01-03-2026 19:29:43</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>83240</v>
+      </c>
+      <c r="C45" t="n">
+        <v>92598</v>
+      </c>
+      <c r="D45" t="n">
+        <v>90360</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CECILIA CAROLINA IBARRA FRIAS</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SENDERO SALTILLO</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>01-12-2025 19:59:32</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>499</v>
+      </c>
+      <c r="M45" t="n">
+        <v>11</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>26-11-2026 19:59:32</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>83129</v>
+      </c>
+      <c r="C46" t="n">
+        <v>280825</v>
+      </c>
+      <c r="D46" t="n">
+        <v>78326</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SUSANA MARCOS CORTEZ</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PAPALOTE TIJUANA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>01-12-2025 7:29:36</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>499</v>
+      </c>
+      <c r="M46" t="n">
+        <v>11</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>26-11-2026 7:29:36</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>83131</v>
+      </c>
+      <c r="C47" t="n">
+        <v>53074</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50930</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>VERONICA  SAAVEDRA CARRILLO</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SAN ISIDRO CULIACAN</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:07:51</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>04-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>399</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>12007</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>83138</v>
+      </c>
+      <c r="C48" t="n">
+        <v>326118</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23057</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MARTHA ANGELA ACOSTA BARRON</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>VILLA VERDE MEXICALI</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:45:17</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>175</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>30-05-2026 8:45:17</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>81538</v>
+      </c>
+      <c r="C49" t="n">
+        <v>307203</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>04702</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ANGELICA ROMO TIRADO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>INDEPENDENCIA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>05-11-2025 20:34:05</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>499</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>31-10-2026 20:34:05</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>73922</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>81540</v>
+      </c>
+      <c r="C50" t="n">
+        <v>307207</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>04706</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MONICA LIZBETH  VILDOSOLA ROMO</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>INDEPENDENCIA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>05-11-2025 20:41:09</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>499</v>
+      </c>
+      <c r="M50" t="n">
+        <v>11</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>31-10-2026 20:41:09</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>73924</v>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>83142</v>
+      </c>
+      <c r="C51" t="n">
+        <v>326134</v>
+      </c>
+      <c r="D51" t="n">
+        <v>23073</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ANGEL IVAN AGUILAR  ORTEGA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>VILLAS DEL REY</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>01-12-2025 9:53:49</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>549</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>30-05-2026 9:53:49</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>83144</v>
+      </c>
+      <c r="C52" t="n">
+        <v>118857</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16567</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>JOMARA SARAHI ALVAREZ GUERRERO</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CARROUSEL TIJUANA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>01-12-2025 10:30:09</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>699</v>
+      </c>
+      <c r="M52" t="n">
+        <v>11</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>26-11-2026 10:30:09</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>62290</v>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>83174</v>
+      </c>
+      <c r="C53" t="n">
+        <v>326197</v>
+      </c>
+      <c r="D53" t="n">
+        <v>23136</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ESTELA CONCEPCION  JUAREZ  RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>01-12-2025 15:34:02</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>649</v>
+      </c>
+      <c r="M53" t="n">
+        <v>11</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>26-11-2026 15:34:02</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>83176</v>
+      </c>
+      <c r="C54" t="n">
+        <v>326213</v>
+      </c>
+      <c r="D54" t="n">
+        <v>23152</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CYNTHIA  MARTINEZ  CRUZ</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>01-12-2025 15:52:48</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>649</v>
+      </c>
+      <c r="M54" t="n">
+        <v>11</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>26-11-2026 15:52:48</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>83191</v>
+      </c>
+      <c r="C55" t="n">
+        <v>326259</v>
+      </c>
+      <c r="D55" t="n">
+        <v>23198</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO  ADAME  MORENO</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PASEO LA PAZ</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:08:51</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>549</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>01-03-2026 17:08:51</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>83193</v>
+      </c>
+      <c r="C56" t="n">
+        <v>109025</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>06766</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>AZUCENA  GUADALUPE  RUELAS  CASTRO</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SAN ISIDRO CULIACAN</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:11:36</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>549</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>01-03-2026 17:11:36</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>83208</v>
+      </c>
+      <c r="C57" t="n">
+        <v>326284</v>
+      </c>
+      <c r="D57" t="n">
+        <v>23223</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ISRAEL  TREJO  AGUIRRE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VILLAS DEL REY</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:02:39</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>549</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>01-03-2026 18:02:39</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>83210</v>
+      </c>
+      <c r="C58" t="n">
+        <v>326283</v>
+      </c>
+      <c r="D58" t="n">
+        <v>23222</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>GABRIELA CASTRO GALLEGOS</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:03:22</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>549</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>01-03-2026 18:03:22</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>83225</v>
+      </c>
+      <c r="C59" t="n">
+        <v>33534</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31457</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CARLOS ARTURO DE LA ROSA BARRIO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:42:07</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>549</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>01-03-2026 18:42:07</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>83227</v>
+      </c>
+      <c r="C60" t="n">
+        <v>326306</v>
+      </c>
+      <c r="D60" t="n">
+        <v>23245</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>JOHAN DOMINGUEZ  GOMEZ</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>TEC MEXICALI</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:44:47</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>499</v>
+      </c>
+      <c r="M60" t="n">
+        <v>11</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:44:47</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>83242</v>
+      </c>
+      <c r="C61" t="n">
+        <v>268017</v>
+      </c>
+      <c r="D61" t="n">
+        <v>65520</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>LUIS ALBERTO JIMENEZ OLVERA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>01-12-2025 20:11:26</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>499</v>
+      </c>
+      <c r="M61" t="n">
+        <v>11</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>26-11-2026 20:11:26</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>83244</v>
+      </c>
+      <c r="C62" t="n">
+        <v>19781</v>
+      </c>
+      <c r="D62" t="n">
+        <v>18682</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>JOSUE MENDOZA NUÑEZ</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>VILLA VERDE MEXICALI</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>01-12-2025 20:27:13</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>699</v>
+      </c>
+      <c r="M62" t="n">
+        <v>11</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>26-11-2026 20:27:13</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>17899</v>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>82776</v>
+      </c>
+      <c r="C63" t="n">
+        <v>300931</v>
+      </c>
+      <c r="D63" t="n">
+        <v>98429</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SUJEY  YAMAGUCHI ALMANZA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SENDERO CULIACAN</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>25-11-2025 6:51:06</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>599</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>70622</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>82825</v>
+      </c>
+      <c r="C64" t="n">
+        <v>212015</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>09523</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SOFIA MARIEL  MORENO  DEL ANGEL</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SANTA CATARINA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>25-11-2025 18:21:51</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>04-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>399</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>15609</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>83125</v>
+      </c>
+      <c r="C65" t="n">
+        <v>208320</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>05828</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>CARLOS ALEJANDRO  GARCIA RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>SENDERO SALTILLO</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>01-12-2025 6:52:20</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>599</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>83127</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32758</v>
+      </c>
+      <c r="D66" t="n">
+        <v>30681</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>CESAR ADRIAN  MINTIJO LORA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>CARROUSEL TIJUANA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>01-12-2025 7:05:40</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>599</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>79490</v>
+      </c>
+      <c r="C67" t="n">
+        <v>312200</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>09699</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>CLARA VALERIA GUZMAN  QUEZADA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>06-10-2025 17:38:22</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>599</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>76890</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>81879</v>
+      </c>
+      <c r="C68" t="n">
+        <v>147573</v>
+      </c>
+      <c r="D68" t="n">
+        <v>45149</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MARIA FERNANDA LUNA CASTILLO</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>PASEO LA PAZ</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>11-11-2025 6:33:31</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>30-12-2025 23:59:59</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>499</v>
+      </c>
+      <c r="M68" t="n">
+        <v>11</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>06-11-2026 6:33:31</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>67864</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>83152</v>
+      </c>
+      <c r="C69" t="n">
+        <v>326160</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23099</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NELSON SEAN ALEXANDER</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>01-12-2025 11:47:53</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>499</v>
+      </c>
+      <c r="M69" t="n">
+        <v>11</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>26-11-2026 11:47:53</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>83166</v>
+      </c>
+      <c r="C70" t="n">
+        <v>208246</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>05754</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MARICELA  HERNANDEZ ANTONIO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>SENDERO SALTILLO</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>01-12-2025 14:46:19</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>699</v>
+      </c>
+      <c r="M70" t="n">
+        <v>11</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>26-11-2026 14:46:19</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>24024</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>83183</v>
+      </c>
+      <c r="C71" t="n">
+        <v>326234</v>
+      </c>
+      <c r="D71" t="n">
+        <v>23173</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ERNESTO  BECERRA  GONZALEZ</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>PASEO LA PAZ</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:29:15</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>549</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>30-05-2026 16:29:15</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>83201</v>
+      </c>
+      <c r="C72" t="n">
+        <v>326280</v>
+      </c>
+      <c r="D72" t="n">
+        <v>23219</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>LUIS ANGEL LEON CARRILES  PALMA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:48:36</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>649</v>
+      </c>
+      <c r="M72" t="n">
+        <v>11</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>26-11-2026 17:48:36</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>83202</v>
+      </c>
+      <c r="C73" t="n">
+        <v>79906</v>
+      </c>
+      <c r="D73" t="n">
+        <v>77705</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELDA YADIRA ARCE  GARCIA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:52:55</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>599</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>83219</v>
+      </c>
+      <c r="C74" t="n">
+        <v>241841</v>
+      </c>
+      <c r="D74" t="n">
+        <v>39346</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>GABRIELA LAYEVSKA MENDEZ REYES</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:31:59</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>549</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>30-05-2026 18:31:59</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>83233</v>
+      </c>
+      <c r="C75" t="n">
+        <v>22982</v>
+      </c>
+      <c r="D75" t="n">
+        <v>21876</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>VICTOR  MEDINA  VIDAL</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CARROUSEL TIJUANA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>01-12-2025 19:11:41</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>599</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>83234</v>
+      </c>
+      <c r="C76" t="n">
+        <v>253860</v>
+      </c>
+      <c r="D76" t="n">
+        <v>51364</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CHRISTIAN DAMACIO LIEVANOS  AVILES</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>AZAHARES CULIACAN</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>01-12-2025 19:16:33</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>499</v>
+      </c>
+      <c r="M76" t="n">
+        <v>11</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>26-11-2026 19:16:33</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>83251</v>
+      </c>
+      <c r="C77" t="n">
+        <v>326341</v>
+      </c>
+      <c r="D77" t="n">
+        <v>23280</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ARELY JANETH RAMOS LOPEZ</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SENDERO CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>02-12-2025 5:27:56</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>02-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>599</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>80962</v>
+      </c>
+      <c r="C78" t="n">
+        <v>158601</v>
+      </c>
+      <c r="D78" t="n">
+        <v>56137</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>LUIS FERNANDO  CARMONA  GUILLEN</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>28-10-2025 18:30:57</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>23-12-2025 23:59:59</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>599</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>76073</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>83133</v>
+      </c>
+      <c r="C79" t="n">
+        <v>326115</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23054</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>YESENIA  REYES BELTRAN</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SENDERO CULIACAN</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:22:11</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>599</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>83134</v>
+      </c>
+      <c r="C80" t="n">
+        <v>326117</v>
+      </c>
+      <c r="D80" t="n">
+        <v>23056</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>CARMEN LUX CARRILLO RIOS</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>PABELLON ROSARITO</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:29:35</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>175</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>30-05-2026 8:29:35</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>81539</v>
+      </c>
+      <c r="C81" t="n">
+        <v>307208</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>04707</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>LUIS ANGEL VILDOSELA ROMO</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>INDEPENDENCIA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>05-11-2025 20:37:35</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>499</v>
+      </c>
+      <c r="M81" t="n">
+        <v>11</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>31-10-2026 20:37:35</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>73925</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>83143</v>
+      </c>
+      <c r="C82" t="n">
+        <v>326128</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23067</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ISIS GINA PACHECO  ORTEGA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>SENDERO SALTILLO</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>01-12-2025 9:11:48</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sin fecha</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>599</v>
+      </c>
+      <c r="M82" t="n">
+        <v>11</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>26-11-2026 9:11:48</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>83160</v>
+      </c>
+      <c r="C83" t="n">
+        <v>269937</v>
+      </c>
+      <c r="D83" t="n">
+        <v>67440</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>PAULA ALEJANDRA RIVAS PAREDES</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>SENDERO CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>01-12-2025 12:57:40</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>499</v>
+      </c>
+      <c r="M83" t="n">
+        <v>11</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>26-11-2026 12:57:40</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83175</v>
+      </c>
+      <c r="C84" t="n">
+        <v>326198</v>
+      </c>
+      <c r="D84" t="n">
+        <v>23137</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ARTURO  SOTO  ZERMEÑO</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>01-12-2025 15:40:49</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>649</v>
+      </c>
+      <c r="M84" t="n">
+        <v>11</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>26-11-2026 15:40:49</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83177</v>
+      </c>
+      <c r="C85" t="n">
+        <v>320124</v>
+      </c>
+      <c r="D85" t="n">
+        <v>17621</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ALAN ANDRE FEMATT RIVAS</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>VILLAS DEL REY</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>01-12-2025 15:59:51</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>549</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>01-03-2026 15:59:51</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>83192</v>
+      </c>
+      <c r="C86" t="n">
+        <v>293911</v>
+      </c>
+      <c r="D86" t="n">
+        <v>91409</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SUSANA  VALENZUELA  QUINTERO</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>AZAHARES CULIACAN</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:11:26</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>04-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>499</v>
+      </c>
+      <c r="M86" t="n">
+        <v>11</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>26-11-2026 17:11:26</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>77261</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>83194</v>
+      </c>
+      <c r="C87" t="n">
+        <v>66511</v>
+      </c>
+      <c r="D87" t="n">
+        <v>64343</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>JOSE BENITO  DIAZ  ALVAREZ</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:13:02</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>01-02-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>599</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>83209</v>
+      </c>
+      <c r="C88" t="n">
+        <v>326279</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23218</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>GLORIA  JAZMIN ORTIZ  ARREDONDO</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>VILLA VERDE MEXICALI</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:02:59</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>549</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>30-05-2026 18:02:59</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>83224</v>
+      </c>
+      <c r="C89" t="n">
+        <v>325813</v>
+      </c>
+      <c r="D89" t="n">
+        <v>22752</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ALEJANDRA  MIRANDA CANO</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MISION ENSENADA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:41:07</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>499</v>
+      </c>
+      <c r="M89" t="n">
+        <v>11</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:41:07</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>83228</v>
+      </c>
+      <c r="C90" t="n">
+        <v>324455</v>
+      </c>
+      <c r="D90" t="n">
+        <v>21394</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>KENYA GUADALUPE MONTOYA MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:54:16</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>599</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>83243</v>
+      </c>
+      <c r="C91" t="n">
+        <v>326330</v>
+      </c>
+      <c r="D91" t="n">
+        <v>23269</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>EMMANUEL  LOPEZ  JIMENEZ</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>01-12-2025 20:17:27</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>549</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>01-03-2026 20:17:27</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>83124</v>
+      </c>
+      <c r="C92" t="n">
+        <v>326106</v>
+      </c>
+      <c r="D92" t="n">
+        <v>23045</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ISMAEL GUADALUPE ANGELES VALIENTE</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>01-12-2025 6:35:02</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>649</v>
+      </c>
+      <c r="M92" t="n">
+        <v>11</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>26-11-2026 6:35:02</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>83126</v>
+      </c>
+      <c r="C93" t="n">
+        <v>89241</v>
+      </c>
+      <c r="D93" t="n">
+        <v>87019</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>JORGE  DE LA ROSA LOPEZ</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>01-12-2025 7:00:37</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>699</v>
+      </c>
+      <c r="M93" t="n">
+        <v>11</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>26-11-2026 7:00:37</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>75338</v>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>81256</v>
+      </c>
+      <c r="C94" t="n">
+        <v>237652</v>
+      </c>
+      <c r="D94" t="n">
+        <v>35157</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ALI ANDRES JUAREZ FERRER</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>PAPALOTE TIJUANA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>03-11-2025 16:19:27</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>599</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>70891</v>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>79713</v>
+      </c>
+      <c r="C95" t="n">
+        <v>286874</v>
+      </c>
+      <c r="D95" t="n">
+        <v>84372</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>INGRID BRITANI OJEDA MONTES</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>08-10-2025 17:36:16</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>07-12-2025 23:59:59</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>499</v>
+      </c>
+      <c r="M95" t="n">
+        <v>11</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>03-10-2026 17:36:16</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>62899</v>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>82278</v>
+      </c>
+      <c r="C96" t="n">
+        <v>258681</v>
+      </c>
+      <c r="D96" t="n">
+        <v>56185</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MARIANA CAROLINA LUGO INZUNZA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>17-11-2025 14:21:59</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>23-12-2025 23:59:59</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>449</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>16-05-2026 14:21:59</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>83139</v>
+      </c>
+      <c r="C97" t="n">
+        <v>275937</v>
+      </c>
+      <c r="D97" t="n">
+        <v>73439</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>DENISSE ADILENE  LABRADOR ALEMAN</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:51:09</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>699</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>30-05-2026 8:51:09</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>78711</v>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>83146</v>
+      </c>
+      <c r="C98" t="n">
+        <v>326155</v>
+      </c>
+      <c r="D98" t="n">
+        <v>23094</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>JESSICA GUADALUPE NAVARRO DIAZ</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>01-12-2025 11:26:50</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>499</v>
+      </c>
+      <c r="M98" t="n">
+        <v>11</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>26-11-2026 11:26:50</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>83157</v>
+      </c>
+      <c r="C99" t="n">
+        <v>326169</v>
+      </c>
+      <c r="D99" t="n">
+        <v>23108</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MAYELA MUÑOZ  GASPAR</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>01-12-2025 12:44:43</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>549</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>30-05-2026 12:44:43</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>83171</v>
+      </c>
+      <c r="C100" t="n">
+        <v>325812</v>
+      </c>
+      <c r="D100" t="n">
+        <v>22751</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>KRISTHIAN ALEJANDRO  GONZALEZ  PINEDA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>AZAHARES CULIACAN</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>01-12-2025 15:14:46</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>599</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>83178</v>
+      </c>
+      <c r="C101" t="n">
+        <v>248874</v>
+      </c>
+      <c r="D101" t="n">
+        <v>46378</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>JESUS GUADALUPE ACOSTA SOLARES</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>SAN ISIDRO CULIACAN</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:00:09</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>02-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>449</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>30-05-2026 16:00:09</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>40088</v>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>83182</v>
+      </c>
+      <c r="C102" t="n">
+        <v>326218</v>
+      </c>
+      <c r="D102" t="n">
+        <v>23157</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>SULAMITH ABIGAIL IBARRA CARRERA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:12:49</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>649</v>
+      </c>
+      <c r="M102" t="n">
+        <v>11</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>26-11-2026 16:12:49</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>83189</v>
+      </c>
+      <c r="C103" t="n">
+        <v>326255</v>
+      </c>
+      <c r="D103" t="n">
+        <v>23194</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>LETXIS AILEEN ALBAÑEZ RIOS</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MISION ENSENADA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:57:23</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>599</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>83196</v>
+      </c>
+      <c r="C104" t="n">
+        <v>326269</v>
+      </c>
+      <c r="D104" t="n">
+        <v>23208</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>EFREN GONZALEZ SOLTERO</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:19:33</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>599</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>83207</v>
+      </c>
+      <c r="C105" t="n">
+        <v>244008</v>
+      </c>
+      <c r="D105" t="n">
+        <v>41513</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ROSA YAZMIN CARRILLO ENRIQUEZ</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:56:53</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>549</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>01-03-2026 17:56:53</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>83214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>326294</v>
+      </c>
+      <c r="D106" t="n">
+        <v>23233</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>CELIA  CORDERO  OLIVARES</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LOMA BONITA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:15:46</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>499</v>
+      </c>
+      <c r="M106" t="n">
+        <v>11</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:15:46</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>83221</v>
+      </c>
+      <c r="C107" t="n">
+        <v>326304</v>
+      </c>
+      <c r="D107" t="n">
+        <v>23243</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>LUCERO ELIZABETH CASTILLO HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:36:16</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>549</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>01-03-2026 18:36:16</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>83239</v>
+      </c>
+      <c r="C108" t="n">
+        <v>324178</v>
+      </c>
+      <c r="D108" t="n">
+        <v>21117</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MANUEL BARRANCOS  ZAZUETA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>01-12-2025 19:36:42</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>399</v>
+      </c>
+      <c r="M108" t="n">
+        <v>11</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>26-11-2026 19:36:42</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>83246</v>
+      </c>
+      <c r="C109" t="n">
+        <v>326336</v>
+      </c>
+      <c r="D109" t="n">
+        <v>23275</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>BRENDA ELIZABETH AYALA  NUÑEZ</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>SAN LUIS</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>01-12-2025 21:09:15</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>599</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>83121</v>
+      </c>
+      <c r="C110" t="n">
+        <v>326103</v>
+      </c>
+      <c r="D110" t="n">
+        <v>23042</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>JUAN LUIS GALLARDO PADILLA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>01-12-2025 6:12:01</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>02-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>499</v>
+      </c>
+      <c r="M110" t="n">
+        <v>11</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>26-11-2026 6:12:01</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>83128</v>
+      </c>
+      <c r="C111" t="n">
+        <v>38850</v>
+      </c>
+      <c r="D111" t="n">
+        <v>36722</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>JAVIER  CHAVEZ  MADRIGAL</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>CARROUSEL TIJUANA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>01-12-2025 7:08:49</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>699</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>30-05-2026 7:08:49</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>36926</v>
+      </c>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>81299</v>
+      </c>
+      <c r="C112" t="n">
+        <v>207533</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>05041</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>EDUARDO GUADALUPE MEDINA  CASILLAS</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>CARROUSEL TIJUANA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>03-11-2025 18:12:54</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>02-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>499</v>
+      </c>
+      <c r="M112" t="n">
+        <v>11</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>29-10-2026 18:12:54</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>79247</v>
+      </c>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>83149</v>
+      </c>
+      <c r="C113" t="n">
+        <v>326157</v>
+      </c>
+      <c r="D113" t="n">
+        <v>23096</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>YAMILETH CARRILLO MURRIETA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>PASEO 2000</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>01-12-2025 11:36:17</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>499</v>
+      </c>
+      <c r="M113" t="n">
+        <v>11</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>26-11-2026 11:36:17</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>83167</v>
+      </c>
+      <c r="C114" t="n">
+        <v>326204</v>
+      </c>
+      <c r="D114" t="n">
+        <v>23143</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>JOSE CORTEZ GODINEZ</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>INDEPENDENCIA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>01-12-2025 14:53:44</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>175</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>30-05-2026 14:53:44</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>83168</v>
+      </c>
+      <c r="C115" t="n">
+        <v>326203</v>
+      </c>
+      <c r="D115" t="n">
+        <v>23142</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SAUL  LOPEZ FRANCO</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>VILLAS DEL REY</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>01-12-2025 14:55:07</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>549</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>30-05-2026 14:55:07</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>83185</v>
+      </c>
+      <c r="C116" t="n">
+        <v>182891</v>
+      </c>
+      <c r="D116" t="n">
+        <v>80398</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>DIEGO PAVIA  MARTINEZ</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>IXTAPALUCA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:41:25</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>499</v>
+      </c>
+      <c r="M116" t="n">
+        <v>11</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>26-11-2026 16:41:25</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>83186</v>
+      </c>
+      <c r="C117" t="n">
+        <v>326250</v>
+      </c>
+      <c r="D117" t="n">
+        <v>23189</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>DANTE SEBASTIAN GONZALEZ VARGAS</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>01-12-2025 16:41:31</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>649</v>
+      </c>
+      <c r="M117" t="n">
+        <v>11</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>26-11-2026 16:41:31</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>83199</v>
+      </c>
+      <c r="C118" t="n">
+        <v>143853</v>
+      </c>
+      <c r="D118" t="n">
+        <v>41452</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>VICTOR MANUEL ARREDONDO  CARRIZOZA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>AZAHARES CULIACAN</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:42:52</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>549</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>01-03-2026 17:42:52</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>83203</v>
+      </c>
+      <c r="C119" t="n">
+        <v>326281</v>
+      </c>
+      <c r="D119" t="n">
+        <v>23220</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>AIDA LIZBETH LUIS GARCIA</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MISION ENSENADA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>01-12-2025 17:53:13</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>599</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>83217</v>
+      </c>
+      <c r="C120" t="n">
+        <v>326299</v>
+      </c>
+      <c r="D120" t="n">
+        <v>23238</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>GONZALO ESPINOZA MARQUEZ</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>INSURGENTES</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:29:18</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>649</v>
+      </c>
+      <c r="M120" t="n">
+        <v>11</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:29:18</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>83218</v>
+      </c>
+      <c r="C121" t="n">
+        <v>326290</v>
+      </c>
+      <c r="D121" t="n">
+        <v>23229</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>BRENDA VERENICE GUZMAN  MORENO</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>TEC MEXICALI</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>01-12-2025 18:30:10</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>499</v>
+      </c>
+      <c r="M121" t="n">
+        <v>11</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>26-11-2026 18:30:10</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>83236</v>
+      </c>
+      <c r="C122" t="n">
+        <v>297760</v>
+      </c>
+      <c r="D122" t="n">
+        <v>95258</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>ALBERTO SÁNCHEZ  RAMÍREZ</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>SANTA CATARINA</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>01-12-2025 19:22:03</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>549</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>30-05-2026 19:22:03</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>83249</v>
+      </c>
+      <c r="C123" t="n">
+        <v>323164</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20103</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>JUAN ALBERTO VILLARREAL LOPEZ</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>TEC MEXICALI</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>01-12-2025 21:15:27</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>549</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>01-03-2026 21:15:27</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>83253</v>
+      </c>
+      <c r="C124" t="n">
+        <v>273459</v>
+      </c>
+      <c r="D124" t="n">
+        <v>70961</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>OSCAR LEONEL BERMUDEZ GARCIA</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>02-12-2025 6:15:34</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>02-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>599</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>83117</v>
+      </c>
+      <c r="C125" t="n">
+        <v>326101</v>
+      </c>
+      <c r="D125" t="n">
+        <v>23040</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>GUSTAVO ANGEL HIDALGO  HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LOMA BONITA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>01-12-2025 5:21:05</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>599</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>83118</v>
+      </c>
+      <c r="C126" t="n">
+        <v>109544</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>07284</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>JORGE DIEGO DIAZ VEGA</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>01-12-2025 5:54:29</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>499</v>
+      </c>
+      <c r="M126" t="n">
+        <v>11</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>26-11-2026 5:54:29</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>83132</v>
+      </c>
+      <c r="C127" t="n">
+        <v>326114</v>
+      </c>
+      <c r="D127" t="n">
+        <v>23053</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>KEVIN URIEL  FITZ JERONIMO</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:15:48</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>499</v>
+      </c>
+      <c r="M127" t="n">
+        <v>11</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>26-11-2026 8:15:48</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>83135</v>
+      </c>
+      <c r="C128" t="n">
+        <v>146744</v>
+      </c>
+      <c r="D128" t="n">
+        <v>44328</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>IBETH DEL ROCIO  ROBLERO LOPEZ</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>SANTA FE</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:38:38</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>599</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>83136</v>
+      </c>
+      <c r="C129" t="n">
+        <v>326119</v>
+      </c>
+      <c r="D129" t="n">
+        <v>23058</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>LUIS RODRIGO  BARBOZA CARRILLO</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>PABELLON ROSARITO</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>01-12-2025 8:40:19</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>01-01-2026 23:59:59</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>349</v>
+      </c>
+      <c r="M129" t="n">
+        <v>5</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>30-05-2026 8:40:19</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Domiciliado</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>81027</v>
+      </c>
+      <c r="C130" t="n">
+        <v>136983</v>
+      </c>
+      <c r="D130" t="n">
+        <v>34625</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>YANDERLI ESPINOZA VALDEZ</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>SENDERO MEXICALI</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>29-10-2025 19:12:09</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>28-12-2025 23:59:59</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Sin filtro</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>RENOVACIÓN</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>399</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Recurrente</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>10953</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Reporte generado: 02-12-2025 03:55 p. m.</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
